--- a/docs/15-1-18/Trazabilidad.xlsx
+++ b/docs/15-1-18/Trazabilidad.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="headquarter" sheetId="1" r:id="rId1"/>
     <sheet name="university" sheetId="3" r:id="rId2"/>
-    <sheet name="career" sheetId="4" r:id="rId3"/>
-    <sheet name="table" sheetId="2" r:id="rId4"/>
+    <sheet name="enclosure" sheetId="5" r:id="rId3"/>
+    <sheet name="career" sheetId="4" r:id="rId4"/>
+    <sheet name="table" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="101" uniqueCount="41">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="133" uniqueCount="48">
   <si>
     <t>tabla</t>
   </si>
@@ -150,6 +151,27 @@
   </si>
   <si>
     <t>universityid no repetido, universityid not null, universitycode not null, universityname not null, universitytype not null , state not null</t>
+  </si>
+  <si>
+    <t>tbenclosure</t>
+  </si>
+  <si>
+    <t>enclosureid</t>
+  </si>
+  <si>
+    <t>enclosurename</t>
+  </si>
+  <si>
+    <t>enclosureheadquarterid</t>
+  </si>
+  <si>
+    <t>enclosureuniversityid</t>
+  </si>
+  <si>
+    <t>enclosurename not null, enclosurename not null, enclosureheadquarterid not null</t>
+  </si>
+  <si>
+    <t>enclosureid no repetido, enclosureid not null, enclosurename not null, enclosureheadquarterid not null,enclosureuniversityid not null</t>
   </si>
 </sst>
 </file>
@@ -311,7 +333,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -328,6 +350,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -858,8 +884,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1083,6 +1109,230 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Z23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="106.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="str">
+        <f>+table!A12</f>
+        <v>tbenclosure</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE(table!A13,," , ",table!A14,," , ",table!A15,," , ",table!A16,,"")</f>
+        <v>enclosureid , enclosurename , enclosureheadquarterid , enclosureuniversityid</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="str">
+        <f>+table!A12</f>
+        <v>tbenclosure</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE(table!A13,," , ",table!A14,," , ",table!A15,," , ",table!A16,,"")</f>
+        <v>enclosureid , enclosurename , enclosureheadquarterid , enclosureuniversityid</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>+table!A12</f>
+        <v>tbenclosure</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6">
+        <f>table!A10</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1244,12 +1494,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1340,7 +1590,7 @@
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="16"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -1348,8 +1598,31 @@
       <c r="C11" s="11"/>
       <c r="E11" s="12"/>
     </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="9"/>
